--- a/docs/report1.xlsx
+++ b/docs/report1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -477,103 +477,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7095420210</t>
+          <t>4397532303</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Novitium Pharma LLC</t>
+          <t>ANI Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digoxin</t>
+          <t>Tolterodine Tartrate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.25 mg/1</t>
+          <t>4 mg/1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S22032A</t>
+          <t>01422003</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>12/23/31</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6516276810</t>
+          <t>6818024906</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amneal Pharmaceuticals LLC</t>
+          <t>Lupin Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warfarin Sodium</t>
+          <t>memantine hydrochloride</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.5 mg/1</t>
+          <t>28 mg/1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AR220319</t>
+          <t>H102306</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02/24/29</t>
+          <t>09/23/30</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7075681430</t>
+          <t>6818024906</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lifestar Pharma LLC</t>
+          <t>Lupin Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
+          <t>memantine hydrochloride</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25 mg/1</t>
+          <t>28 mg/1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>U21T0163A</t>
+          <t>H102306</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -585,109 +585,109 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4354742409</t>
+          <t>0002751201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Solco Healthcare US, LLC</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Losartan Potassium and Hydrochlorothiazide</t>
+          <t>Humalog Mix50/50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25 mg/1</t>
+          <t>100 [iU]/mL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0000030479</t>
+          <t>D390442D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12/23/16</t>
+          <t>03/24/31</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4354742409</t>
+          <t>5511114601</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Solco Healthcare US, LLC</t>
+          <t>Dr. Reddy's Laboratories Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Losartan Potassium and Hydrochlorothiazide</t>
+          <t>Fluconazole</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25 mg/1</t>
+          <t>200 mg/1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0000030479</t>
+          <t>C2201413</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12/23/16</t>
+          <t>12/23/31</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6818015301</t>
+          <t>0002751201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DESLORATADINE</t>
+          <t>Humalog Mix50/50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5 mg/1</t>
+          <t>100 [iU]/mL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G203498</t>
+          <t>D390442D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -699,45 +699,45 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7248510401</t>
+          <t>0002751201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Armas Pharmaceuticals Inc.</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CAFFEINE CITRATE</t>
+          <t>Humalog Mix50/50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60 mg/3mL</t>
+          <t>100 [iU]/mL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CDBU0007B</t>
+          <t>D390442D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02/24/29</t>
+          <t>03/24/31</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -775,147 +775,147 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5974601032</t>
+          <t>2315505601</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jubilant Cadista Pharmaceuticals Inc.</t>
+          <t>Heritage Pharmaceuticals Inc. d/b/a Avet Pharmaceuticals Inc.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Risperidone</t>
+          <t>GLYBURIDE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>.5 mg/1</t>
+          <t>1.25 mg/1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RI121002A</t>
+          <t>18033294</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>12/23/31</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6275642790</t>
+          <t>7075681430</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
+          <t>Lifestar Pharma LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ciprofloxacin and dexamethasone</t>
+          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 mg/mL</t>
+          <t>25 mg/1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BAD0434A</t>
+          <t>U21T0163A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03/24/31</t>
+          <t>09/23/30</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6131439601</t>
+          <t>7248510401</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sandoz Inc.</t>
+          <t>Armas Pharmaceuticals Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cyclopentolate Hydrochloride</t>
+          <t>CAFFEINE CITRATE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10 mg/mL</t>
+          <t>60 mg/3mL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11JUK</t>
+          <t>CDBU0007B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>02/24/29</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2497902707</t>
+          <t>6818015301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TWi Pharmaceuticals, Inc.</t>
+          <t>Lupin Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Diltiazem Hydrochloride</t>
+          <t>DESLORATADINE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>180 mg/1</t>
+          <t>5 mg/1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20220433D1A</t>
+          <t>G203498</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -927,241 +927,241 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6787743305</t>
+          <t>7075681430</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ascend Laboratories, LLC</t>
+          <t>Lifestar Pharma LLC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aripiprazole</t>
+          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15 mg/1</t>
+          <t>25 mg/1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22140477</t>
+          <t>U21T0163A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>09/23/30</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6804775201</t>
+          <t>4279993502</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Larken Laboratories, Inc.</t>
+          <t>Edenbridge Pharmaceuticals LLC.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALLZITAL</t>
+          <t>Doxepin Hydrochloride</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>325 mg/1</t>
+          <t>150 mg/1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20ZSS1</t>
+          <t>217750A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09/23/01</t>
+          <t>01/24/31</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4279993502</t>
+          <t>7070017322</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edenbridge Pharmaceuticals LLC.</t>
+          <t>Xiromed LLC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Doxepin Hydrochloride</t>
+          <t>Tobramycin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>150 mg/1</t>
+          <t>1.2 g/30mL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>217750A</t>
+          <t>AGH106</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>09/23/30</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2315574603</t>
+          <t>2192201607</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avet Pharmaceuticals Inc.</t>
+          <t>Encube Ethicals Private Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rasagiline mesylate</t>
+          <t>Clobetasol Propionate Cream USP, 0.05% Clobetasol Propionate Cream USP, 0.05%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>.5 mg/1</t>
+          <t>.5 mg/g</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RCY01AD6</t>
+          <t>3BK59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12/23/31</t>
+          <t>06/25/30</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6275618413</t>
+          <t>0006483703</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
+          <t>Merck Sharp &amp; Dohme LLC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Oxcarbazepine</t>
+          <t>PNEUMOVAX 23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>300 mg/1</t>
+          <t>25 ug/.5mL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HAD1479B</t>
+          <t>W019533</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02/24/29</t>
+          <t>09/23/30</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7001008501</t>
+          <t>0378932232</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Granules Pharmaceuticals Inc.</t>
+          <t>Mylan Pharmaceuticals Inc.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Prazosin Hydrochloride</t>
+          <t>Wixela Inhub</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2 mg/1</t>
+          <t>500 ug/1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GPV210665A</t>
+          <t>62003114</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>07/23/31</t>
+          <t>10/23/02</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6818096301</t>
+          <t>6818061307</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1171,131 +1171,131 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Albuterol sulfate</t>
+          <t>Quetiapine fumarate</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90 ug/1</t>
+          <t>150 mg/1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>I300480</t>
+          <t>H200623</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>07/25/31</t>
+          <t>03/24/31</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6787743830</t>
+          <t>0002751201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ascend Laboratories, LLC</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Minocycline Hydrochloride</t>
+          <t>Humalog Mix50/50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>105 mg/1</t>
+          <t>100 [iU]/mL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21144129</t>
+          <t>D390442D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08/23/31</t>
+          <t>03/24/31</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4354742409</t>
+          <t>0527217037</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Solco Healthcare US, LLC</t>
+          <t>Lannett Company, Inc.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Losartan Potassium and Hydrochlorothiazide</t>
+          <t>Diclofenac Sodium</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25 mg/1</t>
+          <t>100 mg/1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0000030479</t>
+          <t>2012273</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12/23/16</t>
+          <t>01/24/31</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5511125860</t>
+          <t>0143176901</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dr. Reddy's Laboratories Limited</t>
+          <t>Hikma Pharmaceuticals USA Inc.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ziprasidone hydrochloride</t>
+          <t>Isosorbide Dinitrate</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60 mg/1</t>
+          <t>5 mg/1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C2203608</t>
+          <t>ZC035A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1307,729 +1307,45 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4257116142</t>
+          <t>0703367101</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Micro Labs Limited</t>
+          <t>Teva Parenteral Medicines, Inc.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AMOXICILLIN AND CLAVULANATE POTASSIUM</t>
+          <t>Methotrexate</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>500 mg/1</t>
+          <t>25 mg/mL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACBUV0115</t>
+          <t>22A22KA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09/23/30</t>
+          <t>01/24/31</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>6818061307</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Quetiapine fumarate</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>150 mg/1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>H200332</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2315570501</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Heritage Pharmaceuticals Inc. d/b/a Avet Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Enalapril maleate</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>220311B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>6516252210</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Amneal Pharmaceuticals LLC</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Promethazine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>50 mg/1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BB25922A</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>6586217501</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Aurobindo Pharma Limited</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Penicillin V Potassium</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>250 mg/1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>PQ2521008A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7075681430</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Lifestar Pharma LLC</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>U21T0163A</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>09/23/30</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6846222517</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Inc., USA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Mometasone Furoate</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1 mg/g</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>05220247</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4420625105</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CSL Behring AG</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>AlbuRx</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>12.5 g/50mL</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>P100300269</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>02/24/10</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>4354742409</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Solco Healthcare US, LLC</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Losartan Potassium and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0000030479</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>12/23/16</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2930017116</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Unichem Pharmaceuticals (USA), Inc.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Memantine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>GMNL22002</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>7248510401</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Armas Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CAFFEINE CITRATE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>60 mg/3mL</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>CDBU0007B</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2315574703</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Avet Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Rasagiline mesylate</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1 mg/1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>RCZ01LC6</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>11/23/30</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>6787743830</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ascend Laboratories, LLC</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Minocycline Hydrochloride</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>105 mg/1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>21144129</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>08/23/31</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>5766479783</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Olmesartan Medoxomil, Amlodipine and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0038045</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>6818061607</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Quetiapine fumarate</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>400 mg/1</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>H200625</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1672908915</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Accord Healthcare, Inc.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Finasteride</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1 mg/1</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>P2100253</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>7248510401</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Armas Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAFFEINE CITRATE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>60 mg/3mL</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>CDBU0007B</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>4733590288</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Quetiapine fumarate</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>DNC0065A</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4354742409</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Solco Healthcare US, LLC</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Losartan Potassium and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0000030479</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>12/23/16</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
